--- a/assets/emails.xlsx
+++ b/assets/emails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC5300B-172B-FB42-BFC7-0C80DC8E4A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707DE49-E3F9-E642-923F-0877630F1BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{FDC7BC95-61FB-2E4F-951A-68ECDD87E4AB}"/>
+    <workbookView xWindow="33540" yWindow="2760" windowWidth="28040" windowHeight="15880" xr2:uid="{FDC7BC95-61FB-2E4F-951A-68ECDD87E4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>kwestcott1248@westfield.ma.edu</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve"> tboudreau1713@westfield.ma.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wmonger4437@westfield.ma.edu</t>
   </si>
   <si>
     <t xml:space="preserve"> lstjacques0848@westfield.ma.edu</t>
@@ -444,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90115B-6C61-C544-A16F-DB4432D6BCBF}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,11 +539,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
